--- a/biology/Écologie/Écozone_néotropique/Écozone_néotropique.xlsx
+++ b/biology/Écologie/Écozone_néotropique/Écozone_néotropique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropique</t>
+          <t>Écozone_néotropique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écozone néotropique, ou l'écozone néotropicale, est l'une des huit écozones ou régions biogéographiques terrestres. Dans la nomenclature d'Alfred Russel Wallace, il définit le territoire biogéographique correspondant au Néotropis, qui est le nom donné en chorologie à la partie du globe réunissant l'Amérique centrale, les Antilles, l'Amérique du Sud et les îles Galápagos.
 L'écozone néotropicale comprend la totalité de l'Amérique du Sud et l'Amérique centrale jusqu'au sud du Mexique. Elle présente une faune et une flore différente de l'écozone néarctique, en raison de la séparation entre les deux continents.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropique</t>
+          <t>Écozone_néotropique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Écorégions de type forêts tropicales et subtropicales humides à feuilles caduques
-Campinarana du Rio Negro (Brésil, Colombie)
+          <t>Écorégions de type forêts tropicales et subtropicales humides à feuilles caduques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Campinarana du Rio Negro (Brésil, Colombie)
 Forêts à babaçu du Maranhão (Brésil)
 Forêts côtières de Bahia (Brésil)
 Forêts côtières de la Serra do Mar (Brésil)
@@ -595,9 +612,43 @@
 Varzea du Purus (Brésil)
 Yungas boliviens (Bolivie, Pérou)
 Yungas du Sud des Andes (Argentine, Brésil)
-Yungas péruviens (Pérou)
-Écorégions de type forêts tropicales et subtropicales sèches à feuilles caduques
-Chaco (Argentine, Bolivie, Paraguay)
+Yungas péruviens (Pérou)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Écorégions de type forêts tropicales et subtropicales sèches à feuilles caduques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chaco (Argentine, Bolivie, Paraguay)
 Forêts sèches atlantiques (Brésil)
 Forêts sèches chiquitano (Bolivie, Brésil)
 Forêts sèches cubaines (Cuba)
@@ -631,9 +682,43 @@
 Forêts sèches équatoriennes (Équateur)
 Forêts sèches jamaïcaines (Jamaïque)
 Forêts sèches panaméennes (Panama)
-Forêts sèches portoricaines (Porto Rico)
-Écorégions de type forêts tropicales et subtropicales à conifères
-Forêts de pins cubaines (Cuba)
+Forêts sèches portoricaines (Porto Rico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écorégions de type forêts tropicales et subtropicales à conifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forêts de pins cubaines (Cuba)
 Forêts de pins de Belize (Belize)
 Forêts de pins des Bahamas (Bahamas)
 Forêts de pins d'Hispaniola (République dominicaine, Haïti)
@@ -642,14 +727,82 @@
 Forêts de pins et de chênes de la ceinture volcanique transmexicaine (Mexique)
 Forêts de pins et de chênes de la Sierra de la Laguna (Mexique)
 Forêts de pins et de chênes de la Sierra Madre de Oaxaca (Mexique)
-Forêts de pins et de chênes de la Sierra Madre del Sur (Mexique)
-Écorégion du type forêts tempérées mixtes et à feuilles caduques
-Forêts magellaniques subpolaires (Argentine, Chili)
+Forêts de pins et de chênes de la Sierra Madre del Sur (Mexique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Écorégion du type forêts tempérées mixtes et à feuilles caduques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Forêts magellaniques subpolaires (Argentine, Chili)
 Forêts tempérées des îles Juan Fernandez (Chili)
 Forêts tempérées des îles San Felix et San Ambrosio (Îles Desventuradas) (Chili)
-Forêts tempérées pluviales valdiviennes (Argentine, Chili)
-Écorégions de type  prairies, savanes et brousses tropicales et subtropicales
-Broussailles et prairies de l'ile de Clipperton (France)
+Forêts tempérées pluviales valdiviennes (Argentine, Chili)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Écorégions de type  prairies, savanes et brousses tropicales et subtropicales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Broussailles et prairies de l'ile de Clipperton (France)
 Chaco humide (Argentine, Brésil, Paraguay)
 Chaco sec (Argentine)
 Llanos (Colombie, Venezuela)
@@ -658,16 +811,84 @@
 Savane d'altitude et forêts claires du Cerrado (Bolivie, Brésil, Paraguay)
 Savane du Beni (Bolivie)
 Savane guyanaise (Brésil, Guyana, Venezuela)
-Savane uruguayenne (Argentine, Brésil, Uruguay)
-Écorégions de type steppes herbacées, savanes et brousses tempérées
-Espinal (Argentine)
+Savane uruguayenne (Argentine, Brésil, Uruguay)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Écorégions de type steppes herbacées, savanes et brousses tempérées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Espinal (Argentine)
 Monte argentin (Argentine)
 Pampa humide (Argentine)
 Pampa semi-aride (Argentine)
 Prairies patagoniennes (Argentine, Chili)
-Steppe patagonienne (Argentine, Chili)
-Écorégions de type prairies et savanes inondées
-Everglades (États-Unis)
+Steppe patagonienne (Argentine, Chili)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Écorégions de type prairies et savanes inondées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Everglades (États-Unis)
 Pantanal (Bolivie, Brésil, Paraguay)
 Prairies inondables du Guayaquil (Équateur)
 Savane inondable du Paraná (Argentine)
@@ -675,9 +896,43 @@
 Zones humides cubaines (Cuba)
 Zones humides de l'Enriquillo (République dominicaine, Haïti)
 Zones humides de l'Orénoque (Venezuela)
-Zones humides du Mexique central (Mexique)
-Écorégions de type  prairies et brousses de montagnes et de hauts plateaux
-Paramo de la cordillère Centrale (Équateur, Pérou)
+Zones humides du Mexique central (Mexique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Écorégions de type  prairies et brousses de montagnes et de hauts plateaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Paramo de la cordillère Centrale (Équateur, Pérou)
 Paramo de la cordillère de Merida (Venezuela)
 Paramo de Santa Marta (Colombie)
 Paramo des Andes septentrionales (Colombie, Équateur)
@@ -685,11 +940,79 @@
 Puna humide des Andes centrales (Bolivie, Pérou)
 Puna sèche des Andes centrales (Argentine, Bolivie, Chili)
 Steppe des Andes du Sud (Argentine, Chili)
-Zacatonal (Mexique)
-Écorégions de type forêts, bois et broussailles méditerranéens
-Matorral chilien (Chili)
-Écorégions de type déserts et broussailles xérophytes
-Broussailles à cactus cubaines (Cuba)
+Zacatonal (Mexique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Écorégions de type forêts, bois et broussailles méditerranéens</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Matorral chilien (Chili)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Écorégions de type déserts et broussailles xérophytes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Broussailles à cactus cubaines (Cuba)
 Broussailles à cactus d'Aruba, de Curaçao et de Bonaire (Aruba, Bonaire, Curaçao)
 Broussailles épineuses de la vallée du Motagua (Guatemala)
 Broussailles xériques d'Araya et de Paria (Venezuela)
@@ -706,9 +1029,43 @@
 Désert d'Atacama (Chili, Pérou)
 Désert de Sechura (Pérou)
 Matorral de la vallée de Tehuacán (Mexique)
-Rochers de Saint-Pierre et Saint-Paul (Brésil)
-Écorégions de type mangrove
-Mangroves d'Alvarado (Mexique)
+Rochers de Saint-Pierre et Saint-Paul (Brésil)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres de l'écozone néotropique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Écorégions de type mangrove</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mangroves d'Alvarado (Mexique)
 Mangroves d'Amapa (Brésil)
 Mangroves de Bahia (Brésil)
 Mangroves de Bocas del Toro, de San Bastimentos et de San Blas (Costa Rica, Panama)
@@ -748,31 +1105,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_néotropique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictionnaire de biogéographie végétale par Antoine Da Lage et Georges Métaillé, chez CNRS Éditions,  (ISBN 2-271-05816-3).
  Portail de l'écoatlas   Portail de l’Amérique                    </t>
